--- a/data/intent_emotion_mapping_PAF.xlsx
+++ b/data/intent_emotion_mapping_PAF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -163,25 +163,85 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">q6_0_denture_upper</t>
+    <t xml:space="preserve">q6_0_denture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q6_0_denture_upper(deprecated)</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">q6_0_denture_lower</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">q6_0_denture_lower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(deprecated)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable_upper</t>
+    <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable_upper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(deprecated)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable_lower</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable_lower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(deprecated)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -217,7 +277,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -239,6 +299,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -325,10 +391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -800,19 +866,19 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>5</v>
@@ -821,7 +887,7 @@
         <v>80</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>5</v>
@@ -835,19 +901,19 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>5</v>
@@ -856,7 +922,7 @@
         <v>80</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I15" s="5" t="n">
         <v>5</v>
@@ -870,19 +936,19 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.45</v>
+        <v>0.85</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5</v>
@@ -891,7 +957,7 @@
         <v>80</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5</v>
@@ -905,19 +971,19 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.55</v>
+        <v>0.85</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>5</v>
@@ -926,7 +992,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>5</v>
@@ -940,19 +1006,19 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>5</v>
@@ -961,7 +1027,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>5</v>
@@ -975,54 +1041,54 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="K19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>5</v>
@@ -1043,7 +1109,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/intent_emotion_mapping_PAF.xlsx
+++ b/data/intent_emotion_mapping_PAF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -172,25 +172,7 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">q6_0_denture_lower</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(deprecated)</t>
-    </r>
+    <t xml:space="preserve">q6_0_denture_lower(deprecated)</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -199,49 +181,13 @@
     <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable_upper</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(deprecated)</t>
-    </r>
+    <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable_upper(deprecated)</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable_lower</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(deprecated)</t>
-    </r>
+    <t xml:space="preserve">q6_1_dental_followup_fixed_or_removable_lower(deprecated)</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -266,6 +212,12 @@
   </si>
   <si>
     <t xml:space="preserve">closing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emergency_help</t>
   </si>
 </sst>
 </file>
@@ -277,7 +229,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -299,12 +251,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,10 +337,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1179,6 +1125,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/intent_emotion_mapping_PAF.xlsx
+++ b/data/intent_emotion_mapping_PAF.xlsx
@@ -340,7 +340,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,8 +350,10 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="26.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="27.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="8.49"/>
   </cols>
   <sheetData>
@@ -623,7 +625,7 @@
         <v>80</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>5</v>
@@ -786,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>1</v>
@@ -798,7 +800,7 @@
         <v>80</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>5</v>
@@ -961,7 +963,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0.45</v>
@@ -1078,7 +1080,7 @@
         <v>80</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I21" s="5" t="n">
         <v>5</v>
@@ -1101,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0.75</v>
@@ -1136,7 +1138,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0.75</v>
@@ -1148,7 +1150,7 @@
         <v>80</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>5</v>

--- a/data/intent_emotion_mapping_PAF.xlsx
+++ b/data/intent_emotion_mapping_PAF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t xml:space="preserve">emergency_help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confused_patient_handling</t>
   </si>
 </sst>
 </file>
@@ -337,10 +343,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,7 +359,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="27.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="27.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="8.49"/>
   </cols>
   <sheetData>
@@ -1159,6 +1165,41 @@
         <v>80</v>
       </c>
       <c r="K23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K24" s="4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/intent_emotion_mapping_PAF.xlsx
+++ b/data/intent_emotion_mapping_PAF.xlsx
@@ -346,7 +346,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
